--- a/Final/Test_Data.xlsx
+++ b/Final/Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoqi/Desktop/Workspace/Adv-Techniques-With-LLM/Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A263E0DA-0564-7A49-8743-4B7BA0DB2138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018BE5A1-52A2-4B4A-94FD-5FF267EC64CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="126">
   <si>
     <t>CaseNO</t>
   </si>
@@ -34,22 +34,7 @@
     <t>Correct Treatment</t>
   </si>
   <si>
-    <t>Response of Engine Before Fine-tuning</t>
-  </si>
-  <si>
-    <t>Result of Diagnosis (Correct /Wrong ) Before Fine-tuning</t>
-  </si>
-  <si>
-    <t>Response of Engine After Fine-tuning</t>
-  </si>
-  <si>
-    <t>Result of Diagnosis (Correct /Wrong ) After Fine-tuning</t>
-  </si>
-  <si>
     <t>Response of Engine After Fine-tuning (Set 2)</t>
-  </si>
-  <si>
-    <t>Result of Diagnosis (Correct /Wrong ) After Fine-tuning (Set 2)</t>
   </si>
   <si>
     <t xml:space="preserve">A 42-year-old man with no known significant medical or surgical history presents with altered mental status and seizures. Because of his altered mental status, his history is obtained from his father, who states that the patient moved to the United States 3 months ago from the Democratic Republic of the Congo. He says that prior to moving to the United States, the patient traveled through Central America for several months. 
@@ -64,9 +49,6 @@
     <t>timely intravenous administration of antimalarials</t>
   </si>
   <si>
-    <t>cysticercosis</t>
-  </si>
-  <si>
     <t>Wrong</t>
   </si>
   <si>
@@ -74,9 +56,6 @@
   </si>
   <si>
     <t>Correct</t>
-  </si>
-  <si>
-    <t>malaria</t>
   </si>
   <si>
     <t xml:space="preserve"> 73-year-old female obese smoker, ED setting 
@@ -94,12 +73,6 @@
 * Vasopressors (if necessary)</t>
   </si>
   <si>
-    <t>esophageal dysphagia due to esophageal adenocarcinoma</t>
-  </si>
-  <si>
-    <t>esophageal adenocarcinoma</t>
-  </si>
-  <si>
     <t xml:space="preserve">69 yo f patient, Caucasian, smoker, obese, ED setting.  
 She consulted her family doctor because of chills and light lumbar tenderness for which she was prescribed antibiotic (ciprofloxacin), without further investigation, except for urine tests that turned negative. Symptoms rapidly resolved at this time. 
 After 3 weeks presented at the emergency room mainly complaining of right lumbar pain. She denied nausea, vomiting, loss of appetite or change in bowel habits. She reported no abdominal pain or fever. She never had abdominal or spine intervention. Back pain was something new and no precipitating factor was identified. She was feeling numbness in the right thigh.  
@@ -111,15 +84,6 @@
   </si>
   <si>
     <t xml:space="preserve">Antibiotics, wound medication, support therapy. </t>
-  </si>
-  <si>
-    <t>perforated appendicitis</t>
-  </si>
-  <si>
-    <t>Appendiceal Perforation</t>
-  </si>
-  <si>
-    <t>appendicitis</t>
   </si>
   <si>
     <t xml:space="preserve">7 yo  F patient, territorial and ED setting 
@@ -138,9 +102,6 @@
     <t xml:space="preserve">surgery, antibiotic, support therapy </t>
   </si>
   <si>
-    <t>septic arthritis</t>
-  </si>
-  <si>
     <t>Septic Arthritis</t>
   </si>
   <si>
@@ -156,9 +117,6 @@
     <t xml:space="preserve"> antibiotic, surgery, support therapy</t>
   </si>
   <si>
-    <t>sepsis</t>
-  </si>
-  <si>
     <t xml:space="preserve">65 yo F patient, type 1 diabetes, ED setting, normal weight. She was a retired farmer. 
 She was hospitalized because of fever and chills for more than two weeks. He had a body weight of 60 kg and was well until 3 days prior to admission to a regional hospital. Parenteral cefazolin was ineffective and intermittent fever persisted. A general skin rash over the limbs and trunk and mild dyspnea developed under cefazolin therapy. Blood cultures grew S. Choleraesuis resistant to ampicillin, chloramphenicol, and trimethoprim/sulfamethoxazole, but susceptible to ceftriaxone and ciprofloxacin. Abdominal pain radiating to the back and tenderness over the lower abdomen were reported by the patient. An abdominal computed tomography (CT) scan disclosed infrarenal infective aortitis, a paraaortic abscess and a suspected mycotic aneurysm. Pus obtained by CT-guided percutaneous aspiration of the paraaortic abscess grew S. Choleraesuis with the same antibiogram as the blood isolate. Based on the suspicion of a probable Salmonella mycotic aneurysm, the patient was transferred to the emergency department (ED) of a medical center for further evaluation and management. 
 </t>
@@ -168,15 +126,6 @@
   </si>
   <si>
     <t xml:space="preserve"> antibiotic, support therapy. </t>
-  </si>
-  <si>
-    <t>salmonella choleraesuis infective aortitis</t>
-  </si>
-  <si>
-    <t>Salmonella Mycotic Aortic Aneurysm</t>
-  </si>
-  <si>
-    <t>salmonella mycotic aneurysm</t>
   </si>
   <si>
     <t xml:space="preserve">76 yo, M patient, ED setting, came by himself, overweight, Caucasian. Clinical history of arterial hypertension in therapy with antihypertensive (zanipril, bisoprolol, hydrochlorothiazide). 
@@ -190,15 +139,6 @@
   </si>
   <si>
     <t xml:space="preserve">prokinetic </t>
-  </si>
-  <si>
-    <t>vasovagal syncope</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>syncope secondary to vasovagal response</t>
   </si>
   <si>
     <t xml:space="preserve">61-year-old Hispanic male, overweight smoker. 
@@ -218,12 +158,6 @@
     <t>Broad spectrum antibiotic (change to specfic antibiotic after colture analisis), fluid (crystalloids) replacement (to be established according to fluid tolerance and fluid responsiveness), norepinephrine to mantain mean arterial pressure above 65 mmHg (adding vasopressin in case of refractory shock),  ventilation support (mechanical ventilation with a tidal volume of 6 ml/kg is preferred)</t>
   </si>
   <si>
-    <t>fournier's gangrene</t>
-  </si>
-  <si>
-    <t>Fournier's Gangrene</t>
-  </si>
-  <si>
     <t xml:space="preserve">​​A 39-year-old male with a history of diabetes mellitus was admitted complaining of generalized body ache and fatigue for a week. The patient reported having bilateral arm pain; it was a dull 8/10 on a pain scale and associated with limited range of motion in both shoulder joints. He denied any trauma to the joints. The patient reported non-bloody loose stools during the same period but no fever, chills, abdominal pain, cough, sore throat, urinary symptoms, limb weakness, or rash. He denied any recent travel, being in contact with anyone with similar symptoms, and positive testing for COVID-19. The patient was sexually active with a single female partner. 
 Triage vital signs were significant for temperature of 102.6°F and heart rate of 152 beats per minute while all other signs were unremarkable. On physical examination, the patient was found to have a soft non-distended abdomen with mild tenderness on deep palpation but no organomegaly and normal bowel sound on auscultation. The left testicle was enlarged with mild tenderness but returned a negative transillumination test. A musculoskeletal examination was significant for mild tenderness in both shoulders with relatively more swelling in the right joint. The patient’s motor strength in both upper extremities was 3/5, likely due to pain with no focal neurological deficit. The rest of the physical examination was non-significant. 
 The patient was initially admitted for sepsis likely due to urogenital infection with the possibility of epididymo-orchitis versus necrotizing infection in the perineum versus septic arthritis of the bilateral shoulder joints: ultrasound of the scrotum was suggestive of left epididymo-orchitis; CT of the abdomen and pelvis (Figure ​(Figure1)1) had suggested a gas-forming infectious process in the perineum; and imaging of the shoulders had shown a moderate amount of fluid within the subacromial-subdeltoid bursae as well as within the joint(Figure ​joint(Figure22 and Figure ​Figure33). Blood cultures were sent, and CT-guided aspiration of the joints with purulent fluid study was performed. The patient was started initially on broad-spectrum antibiotics (vancomycin and meropenem) but later switched first to nafcillin and then to cefazolin and clindamycin as the blood cultures grew methicillin-sensitive S. aureus (MSSA) bacteremia and the aspirated fluid was positive for S. schleiferi. Both transthoracic and transesophageal echocardiograms were negative for vegetations. An HIV test was negative and immunoglobulin levels for IgA, IgM, IgE, and IgG were all normal, thus ruling out common immunodeficiency diseases. Inflammatory markers were high with an ESR of 171, CRP of 401, and C3 of 239. Rheumatoid factor as well as antimitochondrial, anti-smooth muscle, antinuclear, and other rheumatologic antibodies were negative. 
@@ -258,12 +192,6 @@
 * Etoposide</t>
   </si>
   <si>
-    <t>hemophagocytic lymphohistiocytosis hlh</t>
-  </si>
-  <si>
-    <t>hemophagocytic lymphohistiocytosis hlh secondary to rickettsia infection</t>
-  </si>
-  <si>
     <t xml:space="preserve">In a 20-year-old female patient, during the extraction of the left upper first molar under local anesthesia, the procedure was discontinued due to the onset of marked swelling and redness around the eyes, ED setting 
 The patient went to the ophthalmologist complaining of increasing swelling and pain around the eyes 6 hours later. 
 The best visual acuity in both eyes was logMAR 0.0 on assessment. During the slit-lamp examination, there was periorbital swelling in the left eye, free eye movement, and light responsiveness. The right eye naturally followed. The bilateral optic nerve was normal on fundus examination. Crepitation was noticed on palpation in the left periorbital area. A quick examination of airway obstruction was performed [Fig. 1]. Orbita computed tomography (CT) revealed diffuse air in the left orbital soft tissue [Fig. 2]. Antibiotics derived from penicillin and nonsteroidal anti-inflammatory drugs were prescribed as preventative measures. The light reaction was continuously monitored. The edema around the eyes subsided 24 hours after the operation and disappeared completely after 7 days [Fig. 3]. 
@@ -274,9 +202,6 @@
   </si>
   <si>
     <t xml:space="preserve">antibiotics, steroids, monitoring </t>
-  </si>
-  <si>
-    <t>orbital emphysema</t>
   </si>
   <si>
     <t xml:space="preserve"> An 82-year-old man, presented to the ED, on February 2018, after sudden onset of left hemiparesis and vertigo. 
@@ -291,12 +216,6 @@
   </si>
   <si>
     <t xml:space="preserve">thrombolysis or thrombectomy, admission in neurosurgery </t>
-  </si>
-  <si>
-    <t>posterior circulation stroke</t>
-  </si>
-  <si>
-    <t>Ischemic Stroke</t>
   </si>
   <si>
     <t xml:space="preserve">A 16-year-old girl, who had been diagnosed with ulcerative colitis (UC) 2 years earlier at a general hospital, recently had several flares of UC despite treatment with azathioprine, mesalamine, and several tapering courses of corticosteroids, ED setting 
@@ -331,15 +250,6 @@
     <t xml:space="preserve">steroids, anti-inflammatory, support </t>
   </si>
   <si>
-    <t>anca-associated vasculitis</t>
-  </si>
-  <si>
-    <t>ANCA-associated Vasculitis (Microscopic Polyangiitis)</t>
-  </si>
-  <si>
-    <t>anca-associated vasculitis subclassified as microscopic polyangiitis</t>
-  </si>
-  <si>
     <t xml:space="preserve">16-year-old, previously healthy female initially presented to her pediatrician with a chief complaint of syncope.  
 The onset of illness started 6 days prior with the symptoms of malaise, fever, and fatigue, later progressing to include chest pain and shortness of breath. She had a presyncopal episode with dizziness, vision changes, and sweating, and later had a true syncopal episode, chipping her tooth upon collapse, but awakening within seconds. After an immediate visit with her primary care physician, she was transferred urgently to our emergency department (ED). 
 On presentation to the ED, Her vital signs were afebrile with a blood pressure of 93/72 mmHg, pulse rate of 90s–100 beats per minute, respiratory rate of 16, and oxygen saturation of 100% on room air. Her physical examination showed a well-developed, well-nourished female in no distress aside from mild pain from her fall, with no apparent head/facial bruising. She was tachycardic with normal heart sounds and no murmurs, with lungs that were clear to auscultation bilaterally and an abdominal examination demonstrating no hepatosplenomegaly. An ECG showed normal sinus rhythm with low-voltage QRS complexes and T-wave inversions in inferior and anterior leads [Figure 1]. Laboratory evaluation revealed normal electrolytes, complete blood counts, and inflammatory markers, including her erythrocyte sedimentation rate and C-reactive protein. Transthoracic echocardiogram (TTE) showed mildly depressed left ventricular (LV) function with an ejection fraction (EF) of approximately 50%, a small pericardial effusion, and striking moderate-to-severe concentric LV hypertrophy (LVH) with a LV diastolic septal and posterior wall thickness of 1.4 cm [Figure 2a] without outflow tract obstruction. Differential diagnosis at the time included hypertrophic cardiomyopathy (HCM) with dysfunction, HCM with arrhythmia, and myocarditis, and she was admitted for close monitoring, including telemetry, and to follow serial troponins. After admission, her initial troponin I resulted at 0.977 ng/mL (laboratory index for upper limits of normal &lt;0.029 ng/mL). 
@@ -352,15 +262,6 @@
   </si>
   <si>
     <t xml:space="preserve">Antiviral, support therapy </t>
-  </si>
-  <si>
-    <t>myocarditis</t>
-  </si>
-  <si>
-    <t>Viral Myocarditis (Influenza A)</t>
-  </si>
-  <si>
-    <t>influenza a-associated myocarditis</t>
   </si>
   <si>
     <t xml:space="preserve">The patient was a 53-year-old Caucasian male with a history of alcohol abuse, hypothyroidism not on medications, and hypertension who presented to the ED with abdominal pain, headaches, and altered mental status with a Glasgow Coma Score (GCS) of 3. 
@@ -410,12 +311,6 @@
     <t xml:space="preserve"> Ciprofloxacin 750 mg twice a day for seven days, as the sensitivity analysis showed the bacteria were susceptible to this antibiotic.</t>
   </si>
   <si>
-    <t>pseudomonas aeruginosa enterocolitis</t>
-  </si>
-  <si>
-    <t>pseudomonas aeruginosa infection</t>
-  </si>
-  <si>
     <t xml:space="preserve">A 54-year-old man with 40-pack-year smoking history presented in the emergency department with chest pain. The pain was sudden in onset, persistent with mid sternum location and radiating to his neck, upper arms and back. He had a productive cough with increasing amount of blood tinged sputum and intermittent wheezing over 3 weeks. He also had a pleuritic chest pain with a cough. The patient has known a diagnosis of COPD, Global Initiative for Chronic Obstructive Lung Disease (GOLD) stage II airflow limitation with forced expiratory volume in 1 s (FEV1) of 2.56 L, 70% of the predicted value and moderate diffusion impairment. There was no history of recent COPD exacerbation or dyspnoea on exertion. The patient did develop progressive shortness of breath with haemoptysis and noticed to have night sweats. However, there were no other infectious symptoms including fever, rigours, chills or recent weight loss. He denied illicit drug usage, tuberculosis exposure, and recent travel or incarceration. He reported negative HIV and purified protein derivative (PPD) skin testing. His medical history also includes hypertension, peripheral vascular disease and chronic kidney disease.
 On examination in the emergency department, the patient was afebrile though tachycardiac. Heart rate was 107 beats per minute, blood pressure 119/68 mm Hg and the respiratory rate was increased to 20 breaths per minute with the oxygen saturation of 96% while breathing ambient air. Auscultation of the chest revealed diminished breath sounds at the right lung with mild expiratory wheezing. The remainder of the physical examination was unremarkable. Chest radiograph showed right upper lobe bullae with adjacent opacification and emphysematous lung (figure 1). Additional laboratory workup revealed mild leucocytosis with white blood cell count of 14 400/μL, mild anaemia with haemoglobin of 11.9 g/dL but normal platelet count 268×103/μL. Coagulation profile including prothrombin time (PT) and partial thromboplastin time (PTT) was within normal limits. Serial troponins were in normal range and the ECG did not reveal acute ST-T changes. Infectious workup including sputum culture and respiratory viral panel was requested. Due to worsening haemoptysis and persistent chest pain, CT of the chest with contrast was performed. The CT chest revealed moderate to severe paraseptal emphysema predominant in the upper lobe. There were non-enhancing soft tissue opacities in paraseptal bullae without air-fluid levels, along with adjacent ground-glass opacities in right upper lobe. Hounsfield unit (HU) of the soft tissue densities was ranging from 50 to 70 consistent with haemorrhage or blood clots. There was no filling defect in the pulmonary arteries and no radiological evidence of endobronchial lesions was observed (figure 2). The patient received empirical antibiotics with azithromycin and ceftriaxone with oral prednisone with the presumed diagnosis of pneumonia and acute COPD exacerbation. Due to worsening haemoptysis on presentation, bronchoscopy was planned. However no recurrent haemoptysis was noticed after the treatment, so airway surveillance was deferred. Further diagnostic workups for invasive fungal infections, mycobacterium disease and vasculitis were performed including acid fast bacilli, serum galactomannan, antineutrophil antibodies (ANA) and antineutrophilic cytoplasmatic antibodies (ANCA), which were all negative. The urine sample for 23 valent pneumococcal antigen was positive, but this was attributed to the 23 valent pneumococcal polysaccaride vaccine administered at hospital admission. The patient improved clinically with no recurrent haemoptysis or chest pain.
 Fig 1 Hyperinflated lungs consistent with COPD. Confluent airspace opacity at the right upper lung with no pleural effusion or pneumothorax.
@@ -429,9 +324,6 @@
   </si>
   <si>
     <t>Conservative management with close monitoring, smoking cessation, and optimization of COPD treatment.</t>
-  </si>
-  <si>
-    <t>intrabullous hemorrhage</t>
   </si>
   <si>
     <t xml:space="preserve">45-year-old woman, normal weight (BMI 24.1 kg/m2), suffering from chronic migraine without aura. She had a regular menstrual cycle and was not taking hormones.
@@ -451,12 +343,6 @@
     <t>medicine switch</t>
   </si>
   <si>
-    <t>Content filtered by safety system</t>
-  </si>
-  <si>
-    <t>sexual arousal disorder due to galcanezumab</t>
-  </si>
-  <si>
     <t xml:space="preserve">51-year-old policeman consults his general practitioner (GP) with a painful, red spot on his upper limb. He is not ill, has no fever, has never smoked, uses a couple of beers each day and is known with hypertension, for which he is treated with atenolol ZOC 100 mg once daily. With a length of 1.86 meters and a bodyweight of 98 kilograms he is slightly over weighted.
 The spot is there for a few days and looks like an oval shaped raised erythema. His GP diagnoses a superficial thrombophlebitis and prescribes conservative treatment: elevation of the leg and compresses. Within a few weeks the string disappears. Two years later the story repeats itself in exactly the same manner, but now the spot is located on the front of his left tibia. The GP again diagnoses superficial thrombophlebitis and prescribes a NSAID. The thromboflebitis again resolves itself in a few weeks.
 A year later he consults again, this time with a swollen left calf, that started just above the ankle and a painful string at the inner side of the knee. Compression ultrasonography however shows no deep vein thrombosis, but again superficial thrombophlebitis. Treatment as before with NSAID. A year later he experiences a superficial thrombophlebitis for the fourth time (again diagnosed with compression ultrasonography) and a consulted specialist advocates screening on thrombophilia and possible malignancy. No thrombophilia is found, but PSA is slightly raised and because of a raised gamma-GT (123 U/l, which a month later spontaneously recovers to 63 U/l) a CT-scan of the abdomen is made. This reveals a solid mass in the left kidney and a solid mass in the suprarenal gland.
@@ -473,12 +359,6 @@
     <t>Elevate the limb when resting. Take nonsteroidal anti-inflammatory drugs (NSAIDs). Wear compression stockings (if the blood clot is in your leg).</t>
   </si>
   <si>
-    <t>renal cell carcinoma</t>
-  </si>
-  <si>
-    <t>renal cell carcinoma rcc</t>
-  </si>
-  <si>
     <t>An 85-year old man was referred to the cardiac arrhythmia service for an implantable loop recorder to exclude arrhythmia as a cause of recurrent syncope. The patient had previously been seen in consultation regarding syncope by a general cardiologist, with no definitive diagnosis made. The patient’s past medical history included a history of PD with cognitive impairment and labile hypertension. He had no prior history of coronary artery disease or cardiac arrhythmias. His only medication was levodopa/carbidopa.
 Previous attempts at characterizing the patient’s syncope had been limited by his cognitive impairment. However, a second history was taken in conjunction with the patient’s family. Based on the family’s recollection, the patient’s syncope would only occur while standing. However, the timing between standing and his events were variable, often occurring after several minutes of standing. The presence of symptoms prior to events were unclear, but the family reported they could often tell before he was about to faint based on his appearance. The syncopal events were brief, typically lasting several seconds with rapid return of consciousness. The syncopal events were gradually increasing in frequency, and now occurred several times per day. Previous investigations, including a 24-h Holter monitor and echocardiogram, were unremarkable.
 Given this history, there was a high clinical suspicion for nOH. Orthostatic vital signs were assessed, revealing a supine blood pressure of 150/80 mmHg and a heart rate of 70 b.p.m. After standing for 5 min, the patient’s heart rate was still 70 b.p.m., but the blood pressure dropped to 90/50 mmHg. Although the patient did not report any symptoms, family members reported that the patient ‘looked like he was about to faint’. Cardiovascular autonomic function testing was performed, which confirmed significant autonomic nervous system failure, including a marked hypotensive response on tilt-table testing and a lack of vasoconstriction during Valsalva manoeuvre, which are shown in Figures 1 and ​22. Overall, the clinical presentation was characteristic of nOH [blood pressure drop of &gt;20/10 mmHg (or &gt;30/15 mmHg with baseline supine hypertension) with only a minimal or absent increase in heart rate].5
@@ -498,9 +378,6 @@
   - Regular Monitoring: Orthostatic vital signs and symptoms frequency, possibly utilizing an implantable loop recorder to rule out arrhythmias.</t>
   </si>
   <si>
-    <t>neurogenic orthostatic hypotension noh</t>
-  </si>
-  <si>
     <t xml:space="preserve">A 22-year-old male with no significant past medical history is brought to the emergency department for syncope. He was getting a haircut when he fainted. Medics say that on arrival his blood pressure was in the 60s and his heart rate was in the low 30s. The patient states that he has fainted many times in the past, but never before saw a doctor for the events. He denies palpitations, chest pain, SOB, fever, cough or other complaints.
 Exam:  Vital signs were normal except for a pulse of 48.  Exam is otherwise normal.
 Labs and orthostatics were normal. The patient stated he would not have come to the ED if this had happened at home. After probing further, doctors learned that the syncope occurred while the barber was shaving the man's neck and as a result, the man is diagnosed with carotid sinus hypersensitivity. He is most likely at higher risk for this condition due to the baseline bradycardia.
@@ -519,20 +396,182 @@
 * Pacemaker: In refractory cases, permanent pacemaker placement may be considered. A pacemaker can help to prevent syncope by pacing the heart at a regular rate.</t>
   </si>
   <si>
-    <t>carotid sinus hypersensitivity css</t>
-  </si>
-  <si>
     <t>Carotid Sinus Hypersensitivity</t>
   </si>
   <si>
-    <t>carotid sinus hypersensitivity</t>
+    <t>Malaria</t>
+  </si>
+  <si>
+    <t>Orbital emphysema</t>
+  </si>
+  <si>
+    <t>Myocarditis</t>
+  </si>
+  <si>
+    <t>Sexual arousal disorder</t>
+  </si>
+  <si>
+    <t>Sexual Arousal Disorder related to Galcanezumab Treatment</t>
+  </si>
+  <si>
+    <t>Acute COPD Exacerbation with Secondary Pulmonary Infection</t>
+  </si>
+  <si>
+    <t>Myxedema Coma</t>
+  </si>
+  <si>
+    <t>Result Before Fine-tuning</t>
+  </si>
+  <si>
+    <t>Response of Engine After Fine-tuning (Set 1)</t>
+  </si>
+  <si>
+    <t>Result After Fine-tuning (Set 1)</t>
+  </si>
+  <si>
+    <t>Result After Fine-tuning (Set 2)</t>
+  </si>
+  <si>
+    <t>Chagas Disease</t>
+  </si>
+  <si>
+    <t>Dysphagia secondary to esophageal adenocarcinoma</t>
+  </si>
+  <si>
+    <t>Esophageal cancer</t>
+  </si>
+  <si>
+    <t>Sepsis with Multiorgan Dysfunction Syndrome</t>
+  </si>
+  <si>
+    <t>Perforated appendicitis with abscess</t>
+  </si>
+  <si>
+    <t>Perforated Appendicitis with Retroperitoneal Abscess</t>
+  </si>
+  <si>
+    <t>Retroperitoneal Gas Gangrene</t>
+  </si>
+  <si>
+    <t>Necrotizing fasciitis</t>
+  </si>
+  <si>
+    <t>Alcohol-induced Septic Shock with Endocarditis</t>
+  </si>
+  <si>
+    <t>Infective Endocarditis</t>
+  </si>
+  <si>
+    <t>Salmonella mycotic aneurysm</t>
+  </si>
+  <si>
+    <t>Salmonella Mycotic Aneurysm</t>
+  </si>
+  <si>
+    <t>Mycotic Aortic Aneurysm due to Salmonella Choleraesuis</t>
+  </si>
+  <si>
+    <t>Vasovagal syncope</t>
+  </si>
+  <si>
+    <t>Vasovagal Syncope</t>
+  </si>
+  <si>
+    <t>Syncope</t>
+  </si>
+  <si>
+    <t>Fournier's gangrene</t>
+  </si>
+  <si>
+    <t>Septic Shock (complication of UTI)</t>
+  </si>
+  <si>
+    <t>Epididymo-orchitis</t>
+  </si>
+  <si>
+    <t>MSSA bacteremia with bilateral septic shoulder arthritis and pulmonary septic embolus</t>
+  </si>
+  <si>
+    <t>MSSA bacteremia with septic embolus in the right lung</t>
+  </si>
+  <si>
+    <t>MSSA Bacteremia with Septic Embolism in the Right Lung</t>
+  </si>
+  <si>
+    <t>Rickettsial infection-induced HLH with MODS</t>
+  </si>
+  <si>
+    <t>Hemophagocytic Lymphohistiocytosis (HLH)</t>
+  </si>
+  <si>
+    <t>HLH with Multiple Organ Dysfunction Syndrome</t>
+  </si>
+  <si>
+    <t>Orbital Emphysema</t>
+  </si>
+  <si>
+    <t>Posterior Circulation Stroke Due to Persistent Trigeminal Artery</t>
+  </si>
+  <si>
+    <t>Vertebrobasilar Insufficiency (VBI)</t>
+  </si>
+  <si>
+    <t>Vertebrobasilar Infarct/Stroke</t>
+  </si>
+  <si>
+    <t>ANCA-associated vasculitis (microscopic polyangiitis)</t>
+  </si>
+  <si>
+    <t>ANCA-Associated Vasculitis (Microscopic Polyangiitis)</t>
+  </si>
+  <si>
+    <t>Anca-Associated Vasculitis</t>
+  </si>
+  <si>
+    <t>Influenza A–associated myopericarditis</t>
+  </si>
+  <si>
+    <t>Myocarditis (Viral)</t>
+  </si>
+  <si>
+    <t>Pseudomonas aeruginosa infection</t>
+  </si>
+  <si>
+    <t>Myxedema Coma with C</t>
+  </si>
+  <si>
+    <t>Intrabullous haemorrhage in a patient with underlying COPD</t>
+  </si>
+  <si>
+    <t>Pneumonia with Acute COPD Exacerbation and Intrabullous Hemorrhage</t>
+  </si>
+  <si>
+    <t>Sexual Arousal Disorder due to Galcanezumab</t>
+  </si>
+  <si>
+    <t>Renal cell carcinoma, clear cell type</t>
+  </si>
+  <si>
+    <t>Renal Cell Carcinoma (RCC) with Metastasis to the Suprarenal Gland and Adenocarcinoma of the Prostate</t>
+  </si>
+  <si>
+    <t>Renal Cell Carcinoma with Metastasis</t>
+  </si>
+  <si>
+    <t>Neurogenic orthostatic hypotension (nOH)</t>
+  </si>
+  <si>
+    <t>Neurogenic Orthostatic Hypotension (nOH)</t>
+  </si>
+  <si>
+    <t>Carotid sinus hypersensitivity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,6 +592,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -590,11 +636,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -899,20 +946,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="161.33203125" customWidth="1"/>
     <col min="5" max="5" width="60" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="60" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="62.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="81.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -925,23 +972,20 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
+      <c r="I1" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -949,31 +993,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -981,28 +1025,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>83</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1010,31 +1057,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1042,31 +1089,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1074,31 +1121,31 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1106,31 +1153,31 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1138,31 +1185,31 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1170,31 +1217,31 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1202,28 +1249,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>101</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="J10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1231,28 +1281,31 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>104</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="J11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1260,28 +1313,31 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>71</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I12" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="J12" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1289,31 +1345,31 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I13" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="J13" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1321,31 +1377,31 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I14" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="J14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1353,31 +1409,31 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G15" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H15" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I15" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="J15" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1385,28 +1441,31 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>76</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I16" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="J16" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1414,28 +1473,31 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>75</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I17" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="J17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1443,31 +1505,31 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I18" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="J18" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1475,28 +1537,31 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="E19" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="G19" t="s">
+        <v>121</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I19" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="J19" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1504,28 +1569,31 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="G20" t="s">
+        <v>124</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I20" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="J20" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1533,35 +1601,36 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="E21" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="H21" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I21" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="J21" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Final/Test_Data.xlsx
+++ b/Final/Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoqi/Desktop/Workspace/Adv-Techniques-With-LLM/Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018BE5A1-52A2-4B4A-94FD-5FF267EC64CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B17A41-07F7-0C4C-BD60-9A8E7FF13465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -946,17 +946,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="161.33203125" customWidth="1"/>
-    <col min="5" max="5" width="60" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="62.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="81.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="33.83203125" customWidth="1"/>
+    <col min="7" max="7" width="23.83203125" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" customWidth="1"/>
+    <col min="9" max="9" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20">
